--- a/Excel/FLEXFIT/06.05/Reg.xlsx
+++ b/Excel/FLEXFIT/06.05/Reg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\FLEXFIT\06.05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BAFE62-ADC8-4436-BE3F-BDC27262BFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094123A-C7AB-474D-8567-2DAF89B699DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{17028C15-A9BE-46B8-AD41-4B1A89B3A6E3}"/>
   </bookViews>
@@ -50562,7 +50562,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
